--- a/outputs/2023/metric_full_rel-202306.xlsx
+++ b/outputs/2023/metric_full_rel-202306.xlsx
@@ -397,10 +397,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>33.47</v>
+        <v>28.28</v>
       </c>
       <c r="E2">
-        <v>31.42</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="3">
@@ -411,13 +411,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="D3">
-        <v>32.79</v>
+        <v>28.28</v>
       </c>
       <c r="E3">
-        <v>31.56</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="4">
@@ -428,13 +428,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.09</v>
+        <v>0.41</v>
       </c>
       <c r="D4">
-        <v>31.97</v>
+        <v>27.87</v>
       </c>
       <c r="E4">
-        <v>31.83</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="5">
@@ -445,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1.23</v>
+        <v>0.82</v>
       </c>
       <c r="D5">
-        <v>32.38</v>
+        <v>27.87</v>
       </c>
       <c r="E5">
-        <v>31.28</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="6">
@@ -462,13 +462,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="D6">
-        <v>32.38</v>
+        <v>28.55</v>
       </c>
       <c r="E6">
-        <v>31.42</v>
+        <v>19.81</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,12 +524,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C2">
@@ -542,21 +542,21 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.08</v>
+        <v>17.39</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C3">
@@ -566,24 +566,24 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15.38</v>
+        <v>17.39</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C4">
@@ -596,21 +596,21 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.08</v>
+        <v>17.39</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C5">
@@ -620,24 +620,24 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>15.38</v>
+        <v>21.74</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C6">
@@ -650,21 +650,21 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.08</v>
+        <v>21.74</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C7">
@@ -677,21 +677,21 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G7">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C8">
@@ -704,21 +704,21 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G8">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C9">
@@ -731,21 +731,21 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G9">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C10">
@@ -758,21 +758,21 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G10">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C11">
@@ -785,21 +785,21 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G11">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C12">
@@ -812,21 +812,21 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>42.42</v>
+        <v>15.79</v>
       </c>
       <c r="G12">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C13">
@@ -836,24 +836,24 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>39.39</v>
+        <v>15.79</v>
       </c>
       <c r="G13">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C14">
@@ -863,24 +863,24 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>36.36</v>
+        <v>15.79</v>
       </c>
       <c r="G14">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C15">
@@ -890,24 +890,24 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="F15">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G15">
-        <v>24.24</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C16">
@@ -917,24 +917,24 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="F16">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G16">
-        <v>24.24</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C17">
@@ -947,21 +947,21 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G17">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C18">
@@ -974,21 +974,21 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G18">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C19">
@@ -1001,21 +1001,21 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G19">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C20">
@@ -1028,21 +1028,21 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G20">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C21">
@@ -1055,21 +1055,21 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G21">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C22">
@@ -1082,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C23">
@@ -1109,21 +1109,21 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C24">
@@ -1136,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C25">
@@ -1163,21 +1163,21 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C26">
@@ -1190,21 +1190,21 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C27">
@@ -1217,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G27">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C28">
@@ -1244,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G28">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C29">
@@ -1271,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G29">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C30">
@@ -1298,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G30">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C31">
@@ -1322,24 +1322,24 @@
         <v>6</v>
       </c>
       <c r="E31">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>62.96</v>
+        <v>45.45</v>
       </c>
       <c r="G31">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C32">
@@ -1352,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C33">
@@ -1379,21 +1379,21 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C34">
@@ -1403,24 +1403,24 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>6.06</v>
       </c>
       <c r="G34">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C35">
@@ -1433,21 +1433,21 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G35">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C36">
@@ -1460,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G36">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C37">
@@ -1487,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>54.55</v>
+        <v>16.67</v>
       </c>
       <c r="G37">
-        <v>45.45</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C38">
@@ -1514,21 +1514,21 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>63.64</v>
+        <v>16.67</v>
       </c>
       <c r="G38">
-        <v>36.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C39">
@@ -1541,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G39">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C40">
@@ -1568,21 +1568,21 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G40">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C41">
@@ -1595,21 +1595,21 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G41">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C42">
@@ -1622,21 +1622,21 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C43">
@@ -1649,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C44">
@@ -1676,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C45">
@@ -1703,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C46">
@@ -1730,21 +1730,21 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C47">
@@ -1757,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G47">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C48">
@@ -1784,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G48">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C49">
@@ -1811,21 +1811,21 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G49">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C50">
@@ -1838,21 +1838,21 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G50">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C51">
@@ -1865,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G51">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C52">
@@ -1892,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G52">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C53">
@@ -1919,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G53">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C54">
@@ -1946,21 +1946,21 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G54">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C55">
@@ -1973,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G55">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C56">
@@ -2000,21 +2000,21 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G56">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C57">
@@ -2027,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G57">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C58">
@@ -2054,21 +2054,21 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>45.45</v>
+        <v>3.33</v>
       </c>
       <c r="G58">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C59">
@@ -2081,21 +2081,21 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>45.45</v>
+        <v>3.33</v>
       </c>
       <c r="G59">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C60">
@@ -2108,21 +2108,21 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G60">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C61">
@@ -2135,21 +2135,21 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G61">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C62">
@@ -2162,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G62">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C63">
@@ -2189,21 +2189,21 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G63">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C64">
@@ -2216,21 +2216,21 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G64">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C65">
@@ -2243,21 +2243,21 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G65">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C66">
@@ -2270,21 +2270,21 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G66">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C67">
@@ -2297,21 +2297,21 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G67">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C68">
@@ -2324,21 +2324,21 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G68">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C69">
@@ -2351,21 +2351,21 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G69">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C70">
@@ -2378,21 +2378,21 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G70">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C71">
@@ -2405,21 +2405,21 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G71">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C72">
@@ -2432,21 +2432,21 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>16.67</v>
+        <v>25</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C73">
@@ -2456,24 +2456,24 @@
         <v>3</v>
       </c>
       <c r="E73">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>13.33</v>
+        <v>31.25</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C74">
@@ -2483,24 +2483,24 @@
         <v>4</v>
       </c>
       <c r="E74">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>13.33</v>
+        <v>25</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C75">
@@ -2510,24 +2510,24 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>13.33</v>
+        <v>25</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C76">
@@ -2537,24 +2537,24 @@
         <v>6</v>
       </c>
       <c r="E76">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>13.33</v>
+        <v>31.25</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C77">
@@ -2567,21 +2567,21 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G77">
-        <v>2.78</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C78">
@@ -2591,24 +2591,24 @@
         <v>3</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F78">
-        <v>27.78</v>
+        <v>42.31</v>
       </c>
       <c r="G78">
-        <v>2.78</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C79">
@@ -2618,24 +2618,24 @@
         <v>4</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F79">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G79">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C80">
@@ -2645,24 +2645,24 @@
         <v>5</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="F80">
-        <v>27.78</v>
+        <v>42.31</v>
       </c>
       <c r="G80">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C81">
@@ -2672,24 +2672,24 @@
         <v>6</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F81">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G81">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C82">
@@ -2702,21 +2702,21 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="G82">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C83">
@@ -2729,21 +2729,21 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="G83">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C84">
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G84">
         <v>54.55</v>
@@ -2765,12 +2765,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C85">
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G85">
         <v>54.55</v>
@@ -2792,12 +2792,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C86">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G86">
         <v>54.55</v>
@@ -2819,12 +2819,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C87">
@@ -2837,21 +2837,21 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>31.25</v>
+        <v>20</v>
       </c>
       <c r="G87">
-        <v>56.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C88">
@@ -2864,21 +2864,21 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>31.25</v>
+        <v>20</v>
       </c>
       <c r="G88">
-        <v>56.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C89">
@@ -2891,21 +2891,21 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G89">
-        <v>62.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C90">
@@ -2918,21 +2918,21 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G90">
-        <v>62.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C91">
@@ -2945,21 +2945,21 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G91">
-        <v>62.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C92">
@@ -2972,21 +2972,21 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>50</v>
+        <v>46.67</v>
       </c>
       <c r="G92">
-        <v>28.85</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C93">
@@ -2999,21 +2999,21 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>51.92</v>
+        <v>50</v>
       </c>
       <c r="G93">
-        <v>26.92</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C94">
@@ -3026,21 +3026,21 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>51.92</v>
+        <v>50</v>
       </c>
       <c r="G94">
-        <v>26.92</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C95">
@@ -3053,21 +3053,21 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G95">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C96">
@@ -3080,21 +3080,21 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G96">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C97">
@@ -3107,21 +3107,21 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>27.27</v>
+        <v>50</v>
       </c>
       <c r="G97">
-        <v>54.55</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C98">
@@ -3134,21 +3134,21 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>27.27</v>
+        <v>50</v>
       </c>
       <c r="G98">
-        <v>54.55</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C99">
@@ -3161,21 +3161,21 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G99">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C100">
@@ -3188,21 +3188,21 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G100">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C101">
@@ -3215,21 +3215,21 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G101">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C102">
@@ -3242,21 +3242,21 @@
         <v>0</v>
       </c>
       <c r="F102">
+        <v>25</v>
+      </c>
+      <c r="G102">
         <v>50</v>
-      </c>
-      <c r="G102">
-        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C103">
@@ -3269,21 +3269,21 @@
         <v>0</v>
       </c>
       <c r="F103">
+        <v>25</v>
+      </c>
+      <c r="G103">
         <v>50</v>
-      </c>
-      <c r="G103">
-        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C104">
@@ -3296,21 +3296,21 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G104">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C105">
@@ -3323,21 +3323,21 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G105">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C106">
@@ -3350,21 +3350,21 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G106">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C107">
@@ -3377,21 +3377,21 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>60</v>
+        <v>30.3</v>
       </c>
       <c r="G107">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C108">
@@ -3404,21 +3404,21 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>56.67</v>
+        <v>30.3</v>
       </c>
       <c r="G108">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C109">
@@ -3428,24 +3428,24 @@
         <v>4</v>
       </c>
       <c r="E109">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G109">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C110">
@@ -3455,24 +3455,24 @@
         <v>5</v>
       </c>
       <c r="E110">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>56.67</v>
+        <v>30.3</v>
       </c>
       <c r="G110">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C111">
@@ -3482,24 +3482,24 @@
         <v>6</v>
       </c>
       <c r="E111">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G111">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C112">
@@ -3512,21 +3512,21 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G112">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C113">
@@ -3536,24 +3536,24 @@
         <v>3</v>
       </c>
       <c r="E113">
-        <v>4.55</v>
+        <v>2.7</v>
       </c>
       <c r="F113">
-        <v>27.27</v>
+        <v>2.7</v>
       </c>
       <c r="G113">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C114">
@@ -3563,24 +3563,24 @@
         <v>4</v>
       </c>
       <c r="E114">
-        <v>4.55</v>
+        <v>2.7</v>
       </c>
       <c r="F114">
-        <v>27.27</v>
+        <v>2.7</v>
       </c>
       <c r="G114">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C115">
@@ -3590,24 +3590,24 @@
         <v>5</v>
       </c>
       <c r="E115">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G115">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C116">
@@ -3617,24 +3617,24 @@
         <v>6</v>
       </c>
       <c r="E116">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G116">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C117">
@@ -3647,21 +3647,21 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G117">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C118">
@@ -3674,21 +3674,21 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G118">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C119">
@@ -3701,21 +3701,21 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G119">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C120">
@@ -3728,21 +3728,21 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G120">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C121">
@@ -3755,21 +3755,21 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G121">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C122">
@@ -3782,21 +3782,21 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>51.52</v>
+        <v>42.42</v>
       </c>
       <c r="G122">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C123">
@@ -3809,21 +3809,21 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>51.52</v>
+        <v>42.42</v>
       </c>
       <c r="G123">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C124">
@@ -3833,24 +3833,24 @@
         <v>4</v>
       </c>
       <c r="E124">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>48.48</v>
+        <v>42.42</v>
       </c>
       <c r="G124">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C125">
@@ -3860,24 +3860,24 @@
         <v>5</v>
       </c>
       <c r="E125">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>45.45</v>
+        <v>42.42</v>
       </c>
       <c r="G125">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C126">
@@ -3887,24 +3887,24 @@
         <v>6</v>
       </c>
       <c r="E126">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
       <c r="G126">
-        <v>12.12</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C127">
@@ -3917,21 +3917,21 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C128">
@@ -3944,21 +3944,21 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C129">
@@ -3971,21 +3971,21 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>16.22</v>
+        <v>38.67</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>50.67</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C130">
@@ -3995,24 +3995,24 @@
         <v>5</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F130">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C131">
@@ -4022,24 +4022,24 @@
         <v>6</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="F131">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C132">
@@ -4052,21 +4052,21 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G132">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C133">
@@ -4079,21 +4079,21 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G133">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C134">
@@ -4106,21 +4106,21 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G134">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C135">
@@ -4133,21 +4133,21 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G135">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C136">
@@ -4160,550 +4160,10 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>50</v>
+        <v>17.39</v>
       </c>
       <c r="G136">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C137">
-        <v>2023</v>
-      </c>
-      <c r="D137">
-        <v>2</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>33.33</v>
-      </c>
-      <c r="G137">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C138">
-        <v>2023</v>
-      </c>
-      <c r="D138">
-        <v>3</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>33.33</v>
-      </c>
-      <c r="G138">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C139">
-        <v>2023</v>
-      </c>
-      <c r="D139">
-        <v>4</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>33.33</v>
-      </c>
-      <c r="G139">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C140">
-        <v>2023</v>
-      </c>
-      <c r="D140">
-        <v>5</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>33.33</v>
-      </c>
-      <c r="G140">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C141">
-        <v>2023</v>
-      </c>
-      <c r="D141">
-        <v>6</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>33.33</v>
-      </c>
-      <c r="G141">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C142">
-        <v>2023</v>
-      </c>
-      <c r="D142">
-        <v>2</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>7.69</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C143">
-        <v>2023</v>
-      </c>
-      <c r="D143">
-        <v>3</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>7.69</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C144">
-        <v>2023</v>
-      </c>
-      <c r="D144">
-        <v>4</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>7.69</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C145">
-        <v>2023</v>
-      </c>
-      <c r="D145">
-        <v>5</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>7.69</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C146">
-        <v>2023</v>
-      </c>
-      <c r="D146">
-        <v>6</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>7.69</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C147">
-        <v>2023</v>
-      </c>
-      <c r="D147">
-        <v>2</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>29.33</v>
-      </c>
-      <c r="G147">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C148">
-        <v>2023</v>
-      </c>
-      <c r="D148">
-        <v>3</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>28</v>
-      </c>
-      <c r="G148">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C149">
-        <v>2023</v>
-      </c>
-      <c r="D149">
-        <v>4</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>29.33</v>
-      </c>
-      <c r="G149">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C150">
-        <v>2023</v>
-      </c>
-      <c r="D150">
-        <v>5</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>29.33</v>
-      </c>
-      <c r="G150">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C151">
-        <v>2023</v>
-      </c>
-      <c r="D151">
-        <v>6</v>
-      </c>
-      <c r="E151">
-        <v>1.33</v>
-      </c>
-      <c r="F151">
-        <v>28</v>
-      </c>
-      <c r="G151">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C152">
-        <v>2023</v>
-      </c>
-      <c r="D152">
-        <v>2</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>39.13</v>
-      </c>
-      <c r="G152">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C153">
-        <v>2023</v>
-      </c>
-      <c r="D153">
-        <v>3</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>39.13</v>
-      </c>
-      <c r="G153">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C154">
-        <v>2023</v>
-      </c>
-      <c r="D154">
-        <v>4</v>
-      </c>
-      <c r="E154">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F154">
-        <v>30.43</v>
-      </c>
-      <c r="G154">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C155">
-        <v>2023</v>
-      </c>
-      <c r="D155">
-        <v>5</v>
-      </c>
-      <c r="E155">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F155">
-        <v>30.43</v>
-      </c>
-      <c r="G155">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C156">
-        <v>2023</v>
-      </c>
-      <c r="D156">
-        <v>6</v>
-      </c>
-      <c r="E156">
-        <v>4.35</v>
-      </c>
-      <c r="F156">
-        <v>34.78</v>
-      </c>
-      <c r="G156">
-        <v>13.04</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4767,10 +4227,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F2">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="3">
@@ -4789,10 +4249,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F3">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="4">
@@ -4811,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F4">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="5">
@@ -4833,10 +4293,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.67</v>
+        <v>17.78</v>
       </c>
       <c r="F5">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -4855,10 +4315,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.67</v>
+        <v>17.78</v>
       </c>
       <c r="F6">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -4877,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33.93</v>
+        <v>29.46</v>
       </c>
       <c r="F7">
-        <v>40.18</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="8">
@@ -4896,13 +4356,13 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>33.04</v>
+        <v>30.36</v>
       </c>
       <c r="F8">
-        <v>40.18</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="9">
@@ -4918,13 +4378,13 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>28.57</v>
+        <v>26.79</v>
       </c>
       <c r="F9">
-        <v>43.75</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="10">
@@ -4940,13 +4400,13 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E10">
+        <v>27.68</v>
+      </c>
+      <c r="F10">
         <v>29.46</v>
-      </c>
-      <c r="F10">
-        <v>43.75</v>
       </c>
     </row>
     <row r="11">
@@ -4962,13 +4422,13 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>29.46</v>
       </c>
       <c r="F11">
-        <v>43.75</v>
+        <v>27.68</v>
       </c>
     </row>
   </sheetData>
